--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scientificgames-my.sharepoint.com/personal/sajinathgaikwad_sgdigital_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny.ajinath/Documents/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{378E2B47-7CBF-3A49-8701-FE367B0581D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27150E-A572-394F-BA01-3603A6053A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>******Git commands for commit</t>
   </si>
@@ -50,9 +50,6 @@
     <t>git add --all   // git add .</t>
   </si>
   <si>
-    <t xml:space="preserve">add all new files. </t>
-  </si>
-  <si>
     <t>git add demo.java</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>git add filename</t>
-  </si>
-  <si>
-    <t>add the file</t>
   </si>
   <si>
     <t>git checkout &lt;commit hashcode/ branch name&gt;</t>
@@ -207,6 +201,42 @@
   </si>
   <si>
     <t>create tags for current branch</t>
+  </si>
+  <si>
+    <t>git checkout &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>It will undo to the previous commit. If code is deleted then we can undo that code with last commit.</t>
+  </si>
+  <si>
+    <t>git checkout -f</t>
+  </si>
+  <si>
+    <t>It will match all files or changes with previous commit.</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>compare working area with staging area</t>
+  </si>
+  <si>
+    <t>git log -p -&lt;count of commit &gt;</t>
+  </si>
+  <si>
+    <t>It will show list of commit depends on count given by us.</t>
+  </si>
+  <si>
+    <t>add all new files into staging area for commit.</t>
+  </si>
+  <si>
+    <t>add the file into staging area</t>
+  </si>
+  <si>
+    <t>git commit -a -m "&lt;message&gt;"</t>
+  </si>
+  <si>
+    <t>It will skiped the staging area and directly commit the changes</t>
   </si>
 </sst>
 </file>
@@ -457,13 +487,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2971800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -498,10 +528,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,45 +865,45 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -886,10 +912,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,10 +924,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -910,162 +936,204 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B37" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="43" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
+      <c r="B43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
